--- a/335Lab/Lab 6/data/data3500.xlsx
+++ b/335Lab/Lab 6/data/data3500.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ClassWork\ME335\335Lab\Lab 6\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class Work\Current\ME335\335Lab\Lab 6\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBFE897-2A36-42F8-A200-570D8CD0639F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B87E825-92D9-4589-AA5B-17983BD79B4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{CF034567-C82D-4548-8DCF-A2412C8E9973}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{CF034567-C82D-4548-8DCF-A2412C8E9973}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>deltaP_inH20</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>valveSetting</t>
+  </si>
+  <si>
+    <t>motorActual_SD_RPM</t>
+  </si>
+  <si>
+    <t>deltaP_SD_inH20</t>
+  </si>
+  <si>
+    <t>flow_SD_GPM</t>
+  </si>
+  <si>
+    <t>torque_SD_lbft</t>
   </si>
 </sst>
 </file>
@@ -407,121 +419,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD987997-35C0-456C-917D-4704B7619C20}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>3514.0940000000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
+        <v>25.242884740060848</v>
+      </c>
+      <c r="D2" s="1">
         <v>541.41</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="3">
+        <v>1.1741379816699347</v>
+      </c>
+      <c r="F2" s="1">
         <v>55.19</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="3">
+        <v>3.240370349203834E-2</v>
+      </c>
+      <c r="H2" s="1">
         <v>2.0659999999999998</v>
       </c>
+      <c r="I2" s="3">
+        <v>5.4772255750515442E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>80</v>
       </c>
       <c r="B3" s="2">
         <v>3517.78</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
+        <v>23.172369322104313</v>
+      </c>
+      <c r="D3" s="2">
         <v>576.13199999999995</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="3">
+        <v>1.0373620390201124</v>
+      </c>
+      <c r="F3" s="2">
         <v>51.244</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="3">
+        <v>2.3021728866443807E-2</v>
+      </c>
+      <c r="H3" s="2">
         <v>2.0219999999999998</v>
       </c>
+      <c r="I3" s="3">
+        <v>4.4721359549994844E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>60</v>
       </c>
       <c r="B4" s="2">
         <v>3538.1080000000002</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
+        <v>20.97613215061341</v>
+      </c>
+      <c r="D4" s="2">
         <v>639.73599999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="3">
+        <v>0.27826246602799409</v>
+      </c>
+      <c r="F4" s="2">
         <v>41.508000000000003</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="3">
+        <v>7.8866976612522025E-2</v>
+      </c>
+      <c r="H4" s="2">
         <v>1.87</v>
       </c>
+      <c r="I4" s="3">
+        <v>7.0710678118654034E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>3550.3719999999998</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
+        <v>23.066974660756863</v>
+      </c>
+      <c r="D5" s="2">
         <v>719.98199999999997</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="3">
+        <v>0.62319338892512044</v>
+      </c>
+      <c r="F5" s="2">
         <v>20.106000000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="3">
+        <v>4.0373258476373686E-2</v>
+      </c>
+      <c r="H5" s="2">
         <v>1.458</v>
       </c>
+      <c r="I5" s="3">
+        <v>4.4721359549995832E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>3567.2280000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
+        <v>17.380653612565894</v>
+      </c>
+      <c r="D6" s="2">
         <v>734.95600000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="3">
+        <v>0.91262259450444261</v>
+      </c>
+      <c r="F6" s="2">
         <v>7.742</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="3">
+        <v>0.10473776778220936</v>
+      </c>
+      <c r="H6" s="2">
         <v>1.214</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5.4772255750516656E-3</v>
       </c>
     </row>
   </sheetData>
